--- a/house-prices/特徴量の分析.xlsx
+++ b/house-prices/特徴量の分析.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tonto\OneDrive\Documents\document\Num-calc\kaggle\Git_clone\house-prices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7953049-E81A-489C-B3ED-1B955A30F203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF56EB2A-9C2B-4391-A9AE-6FC091473E2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="198">
   <si>
     <t>カラム名</t>
     <rPh sb="3" eb="4">
@@ -166,18 +166,12 @@
     <t>Foundation</t>
   </si>
   <si>
-    <t>BsmtQual</t>
-  </si>
-  <si>
     <t>BsmtCond</t>
   </si>
   <si>
     <t>BsmtExposure</t>
   </si>
   <si>
-    <t>BsmtFinType1</t>
-  </si>
-  <si>
     <t>BsmtFinSF1</t>
   </si>
   <si>
@@ -190,9 +184,6 @@
     <t>BsmtUnfSF</t>
   </si>
   <si>
-    <t>TotalBsmtSF</t>
-  </si>
-  <si>
     <t>Heating</t>
   </si>
   <si>
@@ -203,9 +194,6 @@
   </si>
   <si>
     <t>Electrical</t>
-  </si>
-  <si>
-    <t>1stFlrSF</t>
   </si>
   <si>
     <t>2ndFlrSF</t>
@@ -649,6 +637,881 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>エイキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>建物の勾配</t>
+    <rPh sb="0" eb="2">
+      <t>タテモノ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウバイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勾配が無い方が高そう</t>
+    <rPh sb="0" eb="2">
+      <t>コウバイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>タカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エイムズ市域内の物理的な場所</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>周囲にどんな施設があるか</t>
+    <rPh sb="0" eb="2">
+      <t>シュウイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シセツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>周辺施設の状況によって価格はかなり影響ありそう</t>
+    <rPh sb="0" eb="2">
+      <t>シュウヘン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シセツ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カカク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>エイキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>周囲にどんな施設があるか（2つ目）</t>
+    <rPh sb="0" eb="2">
+      <t>シュウイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シセツ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2つ目の項目があるかどうかも結構大きそう</t>
+    <rPh sb="2" eb="3">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ケッコウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住居のタイプ</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウキョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住居タイプによってグレードがかなり異なりそう</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウキョ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>コト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住居のスタイル</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウキョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住居のスタイルも影響大きそう</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウキョ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>エイキョウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Split-level_home#:~:text=This%20style%20of%20house%20is,and%20garage%2Fstorage%20area).</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家の素材の仕上げ</t>
+    <rPh sb="0" eb="1">
+      <t>イエ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ソザイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仕上げも影響度が高そう。</t>
+    <rPh sb="0" eb="2">
+      <t>シア</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>エイキョウド</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>タカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カテゴリ変数だけど、実質順位尺度なので注意</t>
+    <rPh sb="4" eb="6">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジッシツ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジュンイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シャクド</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>チュウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家の状態</t>
+    <rPh sb="0" eb="1">
+      <t>イエ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今の状態も価格への影響大きそう</t>
+    <rPh sb="0" eb="1">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カカク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>エイキョウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>影響度大きそう。</t>
+    <rPh sb="0" eb="3">
+      <t>エイキョウド</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>海外だと築浅とかあまり関係ない？家の状態と相関ありそう</t>
+    <rPh sb="0" eb="2">
+      <t>カイガイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>チクアサ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>イエ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ソウカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>築年</t>
+    <rPh sb="0" eb="2">
+      <t>チクネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>改装した年</t>
+    <rPh sb="0" eb="2">
+      <t>カイソウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>トシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>改装したかどうかも影響大きそう</t>
+    <rPh sb="0" eb="2">
+      <t>カイソウ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>エイキョウオオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>改装しているかどうか。というフラグも作れそう</t>
+    <rPh sb="0" eb="2">
+      <t>カイソウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そこまで影響しない？</t>
+    <rPh sb="4" eb="6">
+      <t>エイキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特定の屋根は高い。とかもありそう</t>
+    <rPh sb="0" eb="2">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヤネ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>タカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>屋根の素材</t>
+    <rPh sb="0" eb="2">
+      <t>ヤネ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ソザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>屋根の形</t>
+    <rPh sb="0" eb="2">
+      <t>ヤネ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カタチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そこまで影響し無さそう</t>
+    <rPh sb="4" eb="6">
+      <t>エイキョウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OverallQualには、外装材のことも内包されている？</t>
+    <rPh sb="14" eb="17">
+      <t>ガイソウザイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ナイホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外装材を2種類利用しているかのフラグも作れる</t>
+    <rPh sb="0" eb="3">
+      <t>ガイソウザイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>石壁の種類</t>
+    <rPh sb="0" eb="2">
+      <t>イシカベ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>影響なくはなさそう</t>
+    <rPh sb="0" eb="2">
+      <t>エイキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>石壁があるかどうかのフラグも作れる</t>
+    <rPh sb="0" eb="2">
+      <t>イシカベ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>石壁の面積</t>
+    <rPh sb="0" eb="2">
+      <t>イシカベ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>メンセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外装材の素材の品質</t>
+    <rPh sb="0" eb="3">
+      <t>ガイソウザイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ソザイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒンシツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家の外装材の種類</t>
+    <rPh sb="0" eb="1">
+      <t>イエ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガイソウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ザイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家の外装材の種類（2つ目）</t>
+    <rPh sb="0" eb="1">
+      <t>イエ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガイソウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ザイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>順位尺度なので注意</t>
+    <rPh sb="0" eb="4">
+      <t>ジュンイシャクド</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>チュウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外装材の素材の状態</t>
+    <rPh sb="0" eb="3">
+      <t>ガイソウザイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ソザイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基礎の種類</t>
+    <rPh sb="0" eb="2">
+      <t>キソ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そんなに関係ない気もする</t>
+    <rPh sb="4" eb="6">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基礎の高さ</t>
+    <rPh sb="0" eb="2">
+      <t>キソ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>タカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高い方が価格が高い？</t>
+    <rPh sb="0" eb="1">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カカク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>タカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基礎の状態</t>
+    <rPh sb="0" eb="2">
+      <t>キソ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基礎の露出？</t>
+    <rPh sb="0" eb="2">
+      <t>キソ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ロシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基礎の仕上げの評価</t>
+    <rPh sb="0" eb="2">
+      <t>キソ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シア</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基礎１の大きさ</t>
+    <rPh sb="0" eb="2">
+      <t>キソ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大きさはまあまあ関係ありそう</t>
+    <rPh sb="0" eb="1">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カンケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BsmtFinType1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BsmtQual</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BsmtFinType1、BsmtQualと乗算することで、使用した基礎の量を算出できそう</t>
+    <rPh sb="22" eb="24">
+      <t>ジョウザン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>キソ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>サンシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基礎の仕上げの評価（2つ目）</t>
+    <rPh sb="0" eb="2">
+      <t>キソ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シア</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基礎２の大きさ</t>
+    <rPh sb="0" eb="2">
+      <t>キソ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未完了の基礎</t>
+    <rPh sb="0" eb="3">
+      <t>ミカンリョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キソ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未完成の場所は安くなってそう</t>
+    <rPh sb="0" eb="3">
+      <t>ミカンセイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヤス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トータルの基礎の大きさ</t>
+    <rPh sb="5" eb="7">
+      <t>キソ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家の広さを間接的に表す</t>
+    <rPh sb="0" eb="1">
+      <t>イエ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒロ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>カンセツテキ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>アラワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>暖房のタイプ</t>
+    <rPh sb="0" eb="2">
+      <t>ダンボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>該当の場所が寒いところなのかも気になる</t>
+    <rPh sb="0" eb="2">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>サム</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いい暖房使っているところは高そう</t>
+    <rPh sb="2" eb="4">
+      <t>ダンボウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>タカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>暖房の品質</t>
+    <rPh sb="0" eb="2">
+      <t>ダンボウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒンシツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>暖房があるかどうかに依存する</t>
+    <rPh sb="0" eb="2">
+      <t>ダンボウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セントラルエアコンの有無</t>
+    <rPh sb="10" eb="12">
+      <t>ウム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2値</t>
+    <rPh sb="1" eb="2">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あるなら価格高そう</t>
+    <rPh sb="4" eb="6">
+      <t>カカク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>タカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電気系の種類</t>
+    <rPh sb="0" eb="3">
+      <t>デンキケイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そんなに関係ないのでは？</t>
+    <rPh sb="4" eb="6">
+      <t>カンケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1階の広さ</t>
+    <rPh sb="1" eb="2">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヒロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TotalBsmtSF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>たぶんTotalBsmtSFと相関がある</t>
+    <rPh sb="15" eb="17">
+      <t>ソウカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>広いほど高価と考えられる</t>
+    <rPh sb="0" eb="1">
+      <t>ヒロ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2階の広さ</t>
+    <rPh sb="1" eb="2">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヒロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2階の有無。というフラグも作れそう</t>
+    <rPh sb="1" eb="2">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ウム</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>低品質の床面積？</t>
+    <rPh sb="0" eb="3">
+      <t>テイヒンシツ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ユカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>メンセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生活居住空間の床面積</t>
+    <rPh sb="0" eb="2">
+      <t>セイカツ</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>キョジュウクウカン</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ユカメンセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>広いほど高そう</t>
+    <rPh sb="0" eb="1">
+      <t>ヒロ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>タカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1stFlrSF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1stFlrSF ＋ 2stFlrSF で算出できそう</t>
+    <rPh sb="21" eb="23">
+      <t>サンシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地下室のフルバスルームの広さ？</t>
+    <rPh sb="0" eb="3">
+      <t>チカシツ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヒロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>定義があっているか確認</t>
+    <rPh sb="0" eb="2">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カクニン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -657,7 +1520,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -670,6 +1533,14 @@
       <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -690,13 +1561,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -978,7 +1852,7 @@
   <dimension ref="A1:G82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1020,19 +1894,19 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" t="s">
         <v>88</v>
       </c>
-      <c r="C2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E2" t="s">
-        <v>92</v>
-      </c>
       <c r="F2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1040,22 +1914,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F3" t="s">
         <v>95</v>
       </c>
-      <c r="E3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F3" t="s">
-        <v>99</v>
-      </c>
       <c r="G3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1063,19 +1937,19 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" t="s">
         <v>90</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F4" t="s">
         <v>94</v>
-      </c>
-      <c r="D4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E4" t="s">
-        <v>97</v>
-      </c>
-      <c r="F4" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1083,19 +1957,19 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" t="s">
         <v>102</v>
       </c>
-      <c r="C5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D5" t="s">
-        <v>106</v>
-      </c>
       <c r="E5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1103,19 +1977,19 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C6" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D6" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F6" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1123,19 +1997,19 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1143,19 +2017,19 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F8" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1163,22 +2037,22 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C9" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F9" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G9" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1186,19 +2060,19 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C10" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D10" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E10" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F10" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1206,22 +2080,22 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C11" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D11" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E11" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F11" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1229,374 +2103,1007 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C12" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D12" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E12" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F12" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>18</v>
       </c>
+      <c r="B13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" t="s">
+        <v>99</v>
+      </c>
+      <c r="F13" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>19</v>
       </c>
+      <c r="B14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F14" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>20</v>
       </c>
+      <c r="B15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" t="s">
+        <v>92</v>
+      </c>
+      <c r="E15" t="s">
+        <v>93</v>
+      </c>
+      <c r="F15" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16" t="s">
+        <v>123</v>
+      </c>
+      <c r="C16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16" t="s">
+        <v>122</v>
+      </c>
+      <c r="G16" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17" t="s">
+        <v>125</v>
+      </c>
+      <c r="C17" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18" t="s">
+        <v>127</v>
+      </c>
+      <c r="C18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" t="s">
+        <v>91</v>
+      </c>
+      <c r="E18" t="s">
+        <v>93</v>
+      </c>
+      <c r="F18" t="s">
+        <v>128</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19" t="s">
+        <v>130</v>
+      </c>
+      <c r="C19" t="s">
+        <v>90</v>
+      </c>
+      <c r="D19" t="s">
+        <v>91</v>
+      </c>
+      <c r="E19" t="s">
+        <v>93</v>
+      </c>
+      <c r="F19" t="s">
+        <v>131</v>
+      </c>
+      <c r="G19" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20" t="s">
+        <v>133</v>
+      </c>
+      <c r="C20" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E20" t="s">
+        <v>93</v>
+      </c>
+      <c r="F20" t="s">
+        <v>134</v>
+      </c>
+      <c r="G20" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21" t="s">
+        <v>137</v>
+      </c>
+      <c r="C21" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E21" t="s">
+        <v>93</v>
+      </c>
+      <c r="F21" t="s">
+        <v>135</v>
+      </c>
+      <c r="G21" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22" t="s">
+        <v>138</v>
+      </c>
+      <c r="C22" t="s">
+        <v>97</v>
+      </c>
+      <c r="D22" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" t="s">
+        <v>93</v>
+      </c>
+      <c r="F22" t="s">
+        <v>139</v>
+      </c>
+      <c r="G22" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23" t="s">
+        <v>144</v>
+      </c>
+      <c r="C23" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23" t="s">
+        <v>91</v>
+      </c>
+      <c r="E23" t="s">
+        <v>88</v>
+      </c>
+      <c r="F23" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24" t="s">
+        <v>143</v>
+      </c>
+      <c r="C24" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" t="s">
+        <v>91</v>
+      </c>
+      <c r="E24" t="s">
+        <v>99</v>
+      </c>
+      <c r="F24" t="s">
+        <v>145</v>
+      </c>
+      <c r="G24" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
+      <c r="B25" t="s">
+        <v>153</v>
+      </c>
+      <c r="C25" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E25" t="s">
+        <v>99</v>
+      </c>
+      <c r="F25" t="s">
+        <v>100</v>
+      </c>
+      <c r="G25" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
+      <c r="B26" t="s">
+        <v>154</v>
+      </c>
+      <c r="C26" t="s">
+        <v>90</v>
+      </c>
+      <c r="D26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26" t="s">
+        <v>99</v>
+      </c>
+      <c r="F26" t="s">
+        <v>100</v>
+      </c>
+      <c r="G26" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
+      <c r="B27" t="s">
+        <v>148</v>
+      </c>
+      <c r="C27" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E27" t="s">
+        <v>99</v>
+      </c>
+      <c r="F27" t="s">
+        <v>149</v>
+      </c>
+      <c r="G27" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
+      <c r="B28" t="s">
+        <v>151</v>
+      </c>
+      <c r="C28" t="s">
+        <v>97</v>
+      </c>
+      <c r="D28" t="s">
+        <v>91</v>
+      </c>
+      <c r="E28" t="s">
+        <v>99</v>
+      </c>
+      <c r="F28" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
+      <c r="B29" t="s">
+        <v>152</v>
+      </c>
+      <c r="C29" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" t="s">
+        <v>91</v>
+      </c>
+      <c r="E29" t="s">
+        <v>99</v>
+      </c>
+      <c r="F29" t="s">
+        <v>149</v>
+      </c>
+      <c r="G29" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
+      <c r="B30" t="s">
+        <v>156</v>
+      </c>
+      <c r="C30" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" t="s">
+        <v>91</v>
+      </c>
+      <c r="E30" t="s">
+        <v>99</v>
+      </c>
+      <c r="F30" t="s">
+        <v>149</v>
+      </c>
+      <c r="G30" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="32" spans="1:1">
+      <c r="B31" t="s">
+        <v>157</v>
+      </c>
+      <c r="C31" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" t="s">
+        <v>91</v>
+      </c>
+      <c r="E31" t="s">
+        <v>88</v>
+      </c>
+      <c r="F31" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
+        <v>167</v>
+      </c>
+      <c r="B32" t="s">
+        <v>159</v>
+      </c>
+      <c r="C32" t="s">
+        <v>90</v>
+      </c>
+      <c r="D32" t="s">
+        <v>91</v>
+      </c>
+      <c r="E32" t="s">
+        <v>99</v>
+      </c>
+      <c r="F32" t="s">
+        <v>160</v>
+      </c>
+      <c r="G32" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
+      <c r="B33" t="s">
+        <v>161</v>
+      </c>
+      <c r="C33" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" t="s">
+        <v>91</v>
+      </c>
+      <c r="E33" t="s">
+        <v>88</v>
+      </c>
+      <c r="F33" t="s">
+        <v>158</v>
+      </c>
+      <c r="G33" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
+      <c r="B34" t="s">
+        <v>162</v>
+      </c>
+      <c r="C34" t="s">
+        <v>90</v>
+      </c>
+      <c r="D34" t="s">
+        <v>91</v>
+      </c>
+      <c r="E34" t="s">
+        <v>88</v>
+      </c>
+      <c r="F34" t="s">
+        <v>158</v>
+      </c>
+      <c r="G34" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>166</v>
+      </c>
+      <c r="B35" t="s">
+        <v>163</v>
+      </c>
+      <c r="C35" t="s">
+        <v>90</v>
+      </c>
+      <c r="D35" t="s">
+        <v>91</v>
+      </c>
+      <c r="E35" t="s">
+        <v>99</v>
+      </c>
+      <c r="F35" t="s">
+        <v>110</v>
+      </c>
+      <c r="G35" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" t="s">
+      <c r="B36" t="s">
+        <v>164</v>
+      </c>
+      <c r="C36" t="s">
+        <v>97</v>
+      </c>
+      <c r="D36" t="s">
+        <v>91</v>
+      </c>
+      <c r="E36" t="s">
+        <v>93</v>
+      </c>
+      <c r="F36" t="s">
+        <v>165</v>
+      </c>
+      <c r="G36" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
+      <c r="B37" t="s">
+        <v>169</v>
+      </c>
+      <c r="C37" t="s">
+        <v>90</v>
+      </c>
+      <c r="D37" t="s">
+        <v>91</v>
+      </c>
+      <c r="E37" t="s">
+        <v>99</v>
+      </c>
+      <c r="F37" t="s">
+        <v>110</v>
+      </c>
+      <c r="G37" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="s">
+      <c r="B38" t="s">
+        <v>170</v>
+      </c>
+      <c r="C38" t="s">
+        <v>97</v>
+      </c>
+      <c r="D38" t="s">
+        <v>91</v>
+      </c>
+      <c r="E38" t="s">
+        <v>93</v>
+      </c>
+      <c r="F38" t="s">
+        <v>165</v>
+      </c>
+      <c r="G38" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" t="s">
+      <c r="B39" t="s">
+        <v>171</v>
+      </c>
+      <c r="C39" t="s">
+        <v>97</v>
+      </c>
+      <c r="D39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E39" t="s">
+        <v>99</v>
+      </c>
+      <c r="F39" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>186</v>
+      </c>
+      <c r="B40" t="s">
+        <v>173</v>
+      </c>
+      <c r="C40" t="s">
+        <v>97</v>
+      </c>
+      <c r="D40" t="s">
+        <v>91</v>
+      </c>
+      <c r="E40" t="s">
+        <v>93</v>
+      </c>
+      <c r="F40" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
+      <c r="B41" t="s">
+        <v>175</v>
+      </c>
+      <c r="C41" t="s">
+        <v>90</v>
+      </c>
+      <c r="D41" t="s">
+        <v>91</v>
+      </c>
+      <c r="E41" t="s">
+        <v>93</v>
+      </c>
+      <c r="F41" t="s">
+        <v>177</v>
+      </c>
+      <c r="G41" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" t="s">
+      <c r="B42" t="s">
+        <v>178</v>
+      </c>
+      <c r="C42" t="s">
+        <v>90</v>
+      </c>
+      <c r="D42" t="s">
+        <v>91</v>
+      </c>
+      <c r="E42" t="s">
+        <v>99</v>
+      </c>
+      <c r="F42" t="s">
+        <v>179</v>
+      </c>
+      <c r="G42" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" t="s">
+      <c r="B43" t="s">
+        <v>180</v>
+      </c>
+      <c r="C43" t="s">
+        <v>181</v>
+      </c>
+      <c r="D43" t="s">
+        <v>91</v>
+      </c>
+      <c r="E43" t="s">
+        <v>93</v>
+      </c>
+      <c r="F43" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" t="s">
+      <c r="B44" t="s">
+        <v>183</v>
+      </c>
+      <c r="C44" t="s">
+        <v>90</v>
+      </c>
+      <c r="D44" t="s">
+        <v>91</v>
+      </c>
+      <c r="E44" t="s">
+        <v>88</v>
+      </c>
+      <c r="F44" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
+        <v>194</v>
+      </c>
+      <c r="B45" t="s">
+        <v>185</v>
+      </c>
+      <c r="C45" t="s">
+        <v>97</v>
+      </c>
+      <c r="D45" t="s">
+        <v>91</v>
+      </c>
+      <c r="E45" t="s">
+        <v>93</v>
+      </c>
+      <c r="F45" t="s">
+        <v>188</v>
+      </c>
+      <c r="G45" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" t="s">
+      <c r="B46" t="s">
+        <v>189</v>
+      </c>
+      <c r="C46" t="s">
+        <v>97</v>
+      </c>
+      <c r="D46" t="s">
+        <v>91</v>
+      </c>
+      <c r="E46" t="s">
+        <v>93</v>
+      </c>
+      <c r="F46" t="s">
+        <v>188</v>
+      </c>
+      <c r="G46" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" t="s">
+      <c r="B47" t="s">
+        <v>191</v>
+      </c>
+      <c r="C47" t="s">
+        <v>97</v>
+      </c>
+      <c r="D47" t="s">
+        <v>91</v>
+      </c>
+      <c r="E47" t="s">
+        <v>88</v>
+      </c>
+      <c r="F47" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" t="s">
+      <c r="B48" t="s">
+        <v>192</v>
+      </c>
+      <c r="C48" t="s">
+        <v>97</v>
+      </c>
+      <c r="D48" t="s">
+        <v>91</v>
+      </c>
+      <c r="E48" t="s">
+        <v>93</v>
+      </c>
+      <c r="F48" t="s">
+        <v>193</v>
+      </c>
+      <c r="G48" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" t="s">
+      <c r="B49" t="s">
+        <v>196</v>
+      </c>
+      <c r="C49" t="s">
+        <v>97</v>
+      </c>
+      <c r="D49" t="s">
+        <v>91</v>
+      </c>
+      <c r="E49" t="s">
+        <v>93</v>
+      </c>
+      <c r="F49" t="s">
+        <v>193</v>
+      </c>
+      <c r="G49" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
-      <c r="A47" t="s">
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
-      <c r="A48" t="s">
+    <row r="52" spans="1:7">
+      <c r="A52" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
-      <c r="A49" t="s">
+    <row r="53" spans="1:7">
+      <c r="A53" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
-      <c r="A50" t="s">
+    <row r="54" spans="1:7">
+      <c r="A54" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
-      <c r="A51" t="s">
+    <row r="55" spans="1:7">
+      <c r="A55" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
-      <c r="A52" t="s">
+    <row r="56" spans="1:7">
+      <c r="A56" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
-      <c r="A53" t="s">
+    <row r="57" spans="1:7">
+      <c r="A57" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
-      <c r="A54" t="s">
+    <row r="58" spans="1:7">
+      <c r="A58" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
-      <c r="A55" t="s">
+    <row r="59" spans="1:7">
+      <c r="A59" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
-      <c r="A56" t="s">
+    <row r="60" spans="1:7">
+      <c r="A60" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
-      <c r="A57" t="s">
+    <row r="61" spans="1:7">
+      <c r="A61" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
-      <c r="A58" t="s">
+    <row r="62" spans="1:7">
+      <c r="A62" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
-      <c r="A59" t="s">
+    <row r="63" spans="1:7">
+      <c r="A63" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
-      <c r="A60" t="s">
+    <row r="64" spans="1:7">
+      <c r="A64" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="G18" r:id="rId1" location=":~:text=This%20style%20of%20house%20is,and%20garage%2Fstorage%20area)." xr:uid="{EDE8786A-3132-473D-ACC2-43DAAE9533EB}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/house-prices/特徴量の分析.xlsx
+++ b/house-prices/特徴量の分析.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tonto\OneDrive\Documents\document\Num-calc\kaggle\Git_clone\house-prices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF56EB2A-9C2B-4391-A9AE-6FC091473E2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A23E9E45-0B52-452A-924F-C0E4FECF27DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$82</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="207">
   <si>
     <t>カラム名</t>
     <rPh sb="3" eb="4">
@@ -229,9 +232,6 @@
     <t>TotRmsAbvGrd</t>
   </si>
   <si>
-    <t>Functional</t>
-  </si>
-  <si>
     <t>Fireplaces</t>
   </si>
   <si>
@@ -1475,16 +1475,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>広いほど高そう</t>
-    <rPh sb="0" eb="1">
-      <t>ヒロ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>タカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>1stFlrSF</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1496,22 +1486,126 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>地下室のフルバスルームの広さ？</t>
+    <t>地下室のフルバスルームの個数</t>
     <rPh sb="0" eb="3">
       <t>チカシツ</t>
     </rPh>
-    <rPh sb="12" eb="13">
-      <t>ヒロ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>定義があっているか確認</t>
-    <rPh sb="0" eb="2">
-      <t>テイギ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カクニン</t>
+    <rPh sb="12" eb="14">
+      <t>コスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地下室のハーフバスルームの個数</t>
+    <rPh sb="0" eb="3">
+      <t>チカシツ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>コスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地上階にあるフルバスルームの個数</t>
+    <rPh sb="0" eb="3">
+      <t>チジョウカイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>コスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地上階にあるハーフバスルームの個数</t>
+    <rPh sb="0" eb="3">
+      <t>チジョウカイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>コスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地上階にあるベッドルームの個数</t>
+    <rPh sb="0" eb="3">
+      <t>チジョウカイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>コスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>多いほど高そう</t>
+    <rPh sb="0" eb="1">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>タカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地上階にあるキッチンの個数</t>
+    <rPh sb="0" eb="3">
+      <t>チジョウカイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キッチンの質</t>
+    <rPh sb="5" eb="6">
+      <t>シツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地上階にある部屋の数</t>
+    <rPh sb="0" eb="3">
+      <t>チジョウカイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヘヤ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Functional</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家の機能性</t>
+    <rPh sb="0" eb="1">
+      <t>イエ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>キノウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>暖炉の数</t>
+    <rPh sb="0" eb="2">
+      <t>ダンロ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>暖炉の質</t>
+    <rPh sb="0" eb="2">
+      <t>ダンロ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>シツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1852,7 +1946,10 @@
   <dimension ref="A1:G82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1894,19 +1991,19 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" t="s">
         <v>87</v>
       </c>
-      <c r="D2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>88</v>
-      </c>
-      <c r="F2" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1914,22 +2011,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G3" t="s">
         <v>95</v>
-      </c>
-      <c r="G3" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1937,19 +2034,19 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" t="s">
         <v>92</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>93</v>
-      </c>
-      <c r="F4" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1957,19 +2054,19 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E5" t="s">
         <v>98</v>
       </c>
-      <c r="C5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>99</v>
-      </c>
-      <c r="F5" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1977,19 +2074,19 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" t="s">
         <v>101</v>
       </c>
-      <c r="C6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F6" t="s">
         <v>102</v>
-      </c>
-      <c r="E6" t="s">
-        <v>93</v>
-      </c>
-      <c r="F6" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1997,19 +2094,19 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F7" t="s">
         <v>104</v>
-      </c>
-      <c r="C7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D7" t="s">
-        <v>92</v>
-      </c>
-      <c r="E7" t="s">
-        <v>88</v>
-      </c>
-      <c r="F7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2017,19 +2114,19 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8" t="s">
         <v>106</v>
-      </c>
-      <c r="C8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D8" t="s">
-        <v>92</v>
-      </c>
-      <c r="E8" t="s">
-        <v>88</v>
-      </c>
-      <c r="F8" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2037,22 +2134,22 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" t="s">
+        <v>109</v>
+      </c>
+      <c r="G9" t="s">
         <v>108</v>
-      </c>
-      <c r="C9" t="s">
-        <v>90</v>
-      </c>
-      <c r="D9" t="s">
-        <v>91</v>
-      </c>
-      <c r="E9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F9" t="s">
-        <v>110</v>
-      </c>
-      <c r="G9" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2060,19 +2157,19 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" t="s">
+        <v>98</v>
+      </c>
+      <c r="F10" t="s">
         <v>111</v>
-      </c>
-      <c r="C10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E10" t="s">
-        <v>99</v>
-      </c>
-      <c r="F10" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2080,22 +2177,22 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F11" t="s">
+        <v>114</v>
+      </c>
+      <c r="G11" t="s">
         <v>113</v>
-      </c>
-      <c r="C11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D11" t="s">
-        <v>91</v>
-      </c>
-      <c r="E11" t="s">
-        <v>99</v>
-      </c>
-      <c r="F11" t="s">
-        <v>115</v>
-      </c>
-      <c r="G11" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2103,19 +2200,19 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" t="s">
+        <v>98</v>
+      </c>
+      <c r="F12" t="s">
         <v>116</v>
-      </c>
-      <c r="C12" t="s">
-        <v>90</v>
-      </c>
-      <c r="D12" t="s">
-        <v>92</v>
-      </c>
-      <c r="E12" t="s">
-        <v>99</v>
-      </c>
-      <c r="F12" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2123,19 +2220,19 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" t="s">
+        <v>91</v>
+      </c>
+      <c r="E13" t="s">
+        <v>98</v>
+      </c>
+      <c r="F13" t="s">
         <v>118</v>
-      </c>
-      <c r="C13" t="s">
-        <v>90</v>
-      </c>
-      <c r="D13" t="s">
-        <v>92</v>
-      </c>
-      <c r="E13" t="s">
-        <v>99</v>
-      </c>
-      <c r="F13" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2143,19 +2240,19 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D14" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" t="s">
         <v>92</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>93</v>
-      </c>
-      <c r="F14" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2163,19 +2260,19 @@
         <v>20</v>
       </c>
       <c r="B15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" t="s">
+        <v>91</v>
+      </c>
+      <c r="E15" t="s">
+        <v>92</v>
+      </c>
+      <c r="F15" t="s">
         <v>121</v>
-      </c>
-      <c r="C15" t="s">
-        <v>90</v>
-      </c>
-      <c r="D15" t="s">
-        <v>92</v>
-      </c>
-      <c r="E15" t="s">
-        <v>93</v>
-      </c>
-      <c r="F15" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2183,22 +2280,22 @@
         <v>21</v>
       </c>
       <c r="B16" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" t="s">
+        <v>92</v>
+      </c>
+      <c r="F16" t="s">
+        <v>121</v>
+      </c>
+      <c r="G16" t="s">
         <v>123</v>
-      </c>
-      <c r="C16" t="s">
-        <v>90</v>
-      </c>
-      <c r="D16" t="s">
-        <v>92</v>
-      </c>
-      <c r="E16" t="s">
-        <v>93</v>
-      </c>
-      <c r="F16" t="s">
-        <v>122</v>
-      </c>
-      <c r="G16" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2206,19 +2303,19 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
+        <v>124</v>
+      </c>
+      <c r="C17" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" t="s">
+        <v>90</v>
+      </c>
+      <c r="E17" t="s">
+        <v>92</v>
+      </c>
+      <c r="F17" t="s">
         <v>125</v>
-      </c>
-      <c r="C17" t="s">
-        <v>90</v>
-      </c>
-      <c r="D17" t="s">
-        <v>91</v>
-      </c>
-      <c r="E17" t="s">
-        <v>93</v>
-      </c>
-      <c r="F17" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2226,22 +2323,22 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C18" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" t="s">
+        <v>92</v>
+      </c>
+      <c r="F18" t="s">
         <v>127</v>
       </c>
-      <c r="C18" t="s">
-        <v>90</v>
-      </c>
-      <c r="D18" t="s">
-        <v>91</v>
-      </c>
-      <c r="E18" t="s">
-        <v>93</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="G18" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2249,22 +2346,22 @@
         <v>24</v>
       </c>
       <c r="B19" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" t="s">
+        <v>90</v>
+      </c>
+      <c r="E19" t="s">
+        <v>92</v>
+      </c>
+      <c r="F19" t="s">
         <v>130</v>
       </c>
-      <c r="C19" t="s">
-        <v>90</v>
-      </c>
-      <c r="D19" t="s">
-        <v>91</v>
-      </c>
-      <c r="E19" t="s">
-        <v>93</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>131</v>
-      </c>
-      <c r="G19" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2272,22 +2369,22 @@
         <v>25</v>
       </c>
       <c r="B20" t="s">
+        <v>132</v>
+      </c>
+      <c r="C20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" t="s">
+        <v>92</v>
+      </c>
+      <c r="F20" t="s">
         <v>133</v>
       </c>
-      <c r="C20" t="s">
-        <v>90</v>
-      </c>
-      <c r="D20" t="s">
-        <v>91</v>
-      </c>
-      <c r="E20" t="s">
-        <v>93</v>
-      </c>
-      <c r="F20" t="s">
-        <v>134</v>
-      </c>
       <c r="G20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2295,22 +2392,22 @@
         <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F21" t="s">
+        <v>134</v>
+      </c>
+      <c r="G21" t="s">
         <v>135</v>
-      </c>
-      <c r="G21" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2318,22 +2415,22 @@
         <v>27</v>
       </c>
       <c r="B22" t="s">
+        <v>137</v>
+      </c>
+      <c r="C22" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22" t="s">
+        <v>90</v>
+      </c>
+      <c r="E22" t="s">
+        <v>92</v>
+      </c>
+      <c r="F22" t="s">
         <v>138</v>
       </c>
-      <c r="C22" t="s">
-        <v>97</v>
-      </c>
-      <c r="D22" t="s">
-        <v>91</v>
-      </c>
-      <c r="E22" t="s">
-        <v>93</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>139</v>
-      </c>
-      <c r="G22" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2341,19 +2438,19 @@
         <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2361,22 +2458,22 @@
         <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G24" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2384,22 +2481,22 @@
         <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E25" t="s">
+        <v>98</v>
+      </c>
+      <c r="F25" t="s">
         <v>99</v>
       </c>
-      <c r="F25" t="s">
-        <v>100</v>
-      </c>
       <c r="G25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2407,22 +2504,22 @@
         <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E26" t="s">
+        <v>98</v>
+      </c>
+      <c r="F26" t="s">
         <v>99</v>
       </c>
-      <c r="F26" t="s">
-        <v>100</v>
-      </c>
       <c r="G26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2430,22 +2527,22 @@
         <v>32</v>
       </c>
       <c r="B27" t="s">
+        <v>147</v>
+      </c>
+      <c r="C27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" t="s">
+        <v>98</v>
+      </c>
+      <c r="F27" t="s">
         <v>148</v>
       </c>
-      <c r="C27" t="s">
-        <v>90</v>
-      </c>
-      <c r="D27" t="s">
-        <v>91</v>
-      </c>
-      <c r="E27" t="s">
-        <v>99</v>
-      </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>149</v>
-      </c>
-      <c r="G27" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2453,19 +2550,19 @@
         <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E28" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F28" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2473,22 +2570,22 @@
         <v>34</v>
       </c>
       <c r="B29" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G29" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2496,22 +2593,22 @@
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F30" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G30" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2519,42 +2616,42 @@
         <v>36</v>
       </c>
       <c r="B31" t="s">
+        <v>156</v>
+      </c>
+      <c r="C31" t="s">
+        <v>89</v>
+      </c>
+      <c r="D31" t="s">
+        <v>90</v>
+      </c>
+      <c r="E31" t="s">
+        <v>87</v>
+      </c>
+      <c r="F31" t="s">
         <v>157</v>
-      </c>
-      <c r="C31" t="s">
-        <v>90</v>
-      </c>
-      <c r="D31" t="s">
-        <v>91</v>
-      </c>
-      <c r="E31" t="s">
-        <v>88</v>
-      </c>
-      <c r="F31" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B32" t="s">
+        <v>158</v>
+      </c>
+      <c r="C32" t="s">
+        <v>89</v>
+      </c>
+      <c r="D32" t="s">
+        <v>90</v>
+      </c>
+      <c r="E32" t="s">
+        <v>98</v>
+      </c>
+      <c r="F32" t="s">
         <v>159</v>
       </c>
-      <c r="C32" t="s">
-        <v>90</v>
-      </c>
-      <c r="D32" t="s">
-        <v>91</v>
-      </c>
-      <c r="E32" t="s">
-        <v>99</v>
-      </c>
-      <c r="F32" t="s">
-        <v>160</v>
-      </c>
       <c r="G32" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2562,22 +2659,22 @@
         <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G33" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2585,45 +2682,45 @@
         <v>38</v>
       </c>
       <c r="B34" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C34" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D34" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F34" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G34" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B35" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F35" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G35" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2631,22 +2728,22 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
+        <v>163</v>
+      </c>
+      <c r="C36" t="s">
+        <v>96</v>
+      </c>
+      <c r="D36" t="s">
+        <v>90</v>
+      </c>
+      <c r="E36" t="s">
+        <v>92</v>
+      </c>
+      <c r="F36" t="s">
         <v>164</v>
       </c>
-      <c r="C36" t="s">
-        <v>97</v>
-      </c>
-      <c r="D36" t="s">
-        <v>91</v>
-      </c>
-      <c r="E36" t="s">
-        <v>93</v>
-      </c>
-      <c r="F36" t="s">
-        <v>165</v>
-      </c>
       <c r="G36" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2654,22 +2751,22 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C37" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D37" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G37" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2677,22 +2774,22 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C38" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D38" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F38" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G38" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2700,39 +2797,39 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
+        <v>170</v>
+      </c>
+      <c r="C39" t="s">
+        <v>96</v>
+      </c>
+      <c r="D39" t="s">
+        <v>90</v>
+      </c>
+      <c r="E39" t="s">
+        <v>98</v>
+      </c>
+      <c r="F39" t="s">
         <v>171</v>
-      </c>
-      <c r="C39" t="s">
-        <v>97</v>
-      </c>
-      <c r="D39" t="s">
-        <v>91</v>
-      </c>
-      <c r="E39" t="s">
-        <v>99</v>
-      </c>
-      <c r="F39" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B40" t="s">
+        <v>172</v>
+      </c>
+      <c r="C40" t="s">
+        <v>96</v>
+      </c>
+      <c r="D40" t="s">
+        <v>90</v>
+      </c>
+      <c r="E40" t="s">
+        <v>92</v>
+      </c>
+      <c r="F40" t="s">
         <v>173</v>
-      </c>
-      <c r="C40" t="s">
-        <v>97</v>
-      </c>
-      <c r="D40" t="s">
-        <v>91</v>
-      </c>
-      <c r="E40" t="s">
-        <v>93</v>
-      </c>
-      <c r="F40" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2740,22 +2837,22 @@
         <v>43</v>
       </c>
       <c r="B41" t="s">
+        <v>174</v>
+      </c>
+      <c r="C41" t="s">
+        <v>89</v>
+      </c>
+      <c r="D41" t="s">
+        <v>90</v>
+      </c>
+      <c r="E41" t="s">
+        <v>92</v>
+      </c>
+      <c r="F41" t="s">
+        <v>176</v>
+      </c>
+      <c r="G41" t="s">
         <v>175</v>
-      </c>
-      <c r="C41" t="s">
-        <v>90</v>
-      </c>
-      <c r="D41" t="s">
-        <v>91</v>
-      </c>
-      <c r="E41" t="s">
-        <v>93</v>
-      </c>
-      <c r="F41" t="s">
-        <v>177</v>
-      </c>
-      <c r="G41" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2763,22 +2860,22 @@
         <v>44</v>
       </c>
       <c r="B42" t="s">
+        <v>177</v>
+      </c>
+      <c r="C42" t="s">
+        <v>89</v>
+      </c>
+      <c r="D42" t="s">
+        <v>90</v>
+      </c>
+      <c r="E42" t="s">
+        <v>98</v>
+      </c>
+      <c r="F42" t="s">
         <v>178</v>
       </c>
-      <c r="C42" t="s">
-        <v>90</v>
-      </c>
-      <c r="D42" t="s">
-        <v>91</v>
-      </c>
-      <c r="E42" t="s">
-        <v>99</v>
-      </c>
-      <c r="F42" t="s">
-        <v>179</v>
-      </c>
       <c r="G42" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2786,19 +2883,19 @@
         <v>45</v>
       </c>
       <c r="B43" t="s">
+        <v>179</v>
+      </c>
+      <c r="C43" t="s">
         <v>180</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
+        <v>90</v>
+      </c>
+      <c r="E43" t="s">
+        <v>92</v>
+      </c>
+      <c r="F43" t="s">
         <v>181</v>
-      </c>
-      <c r="D43" t="s">
-        <v>91</v>
-      </c>
-      <c r="E43" t="s">
-        <v>93</v>
-      </c>
-      <c r="F43" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -2806,42 +2903,42 @@
         <v>46</v>
       </c>
       <c r="B44" t="s">
+        <v>182</v>
+      </c>
+      <c r="C44" t="s">
+        <v>89</v>
+      </c>
+      <c r="D44" t="s">
+        <v>90</v>
+      </c>
+      <c r="E44" t="s">
+        <v>87</v>
+      </c>
+      <c r="F44" t="s">
         <v>183</v>
-      </c>
-      <c r="C44" t="s">
-        <v>90</v>
-      </c>
-      <c r="D44" t="s">
-        <v>91</v>
-      </c>
-      <c r="E44" t="s">
-        <v>88</v>
-      </c>
-      <c r="F44" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B45" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E45" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F45" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G45" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -2849,22 +2946,22 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
+        <v>188</v>
+      </c>
+      <c r="C46" t="s">
+        <v>96</v>
+      </c>
+      <c r="D46" t="s">
+        <v>90</v>
+      </c>
+      <c r="E46" t="s">
+        <v>92</v>
+      </c>
+      <c r="F46" t="s">
+        <v>187</v>
+      </c>
+      <c r="G46" t="s">
         <v>189</v>
-      </c>
-      <c r="C46" t="s">
-        <v>97</v>
-      </c>
-      <c r="D46" t="s">
-        <v>91</v>
-      </c>
-      <c r="E46" t="s">
-        <v>93</v>
-      </c>
-      <c r="F46" t="s">
-        <v>188</v>
-      </c>
-      <c r="G46" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -2872,19 +2969,19 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C47" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D47" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E47" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F47" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -2892,22 +2989,22 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C48" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D48" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E48" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F48" t="s">
+        <v>199</v>
+      </c>
+      <c r="G48" t="s">
         <v>193</v>
-      </c>
-      <c r="G48" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -2915,190 +3012,335 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C49" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D49" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E49" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="F49" t="s">
-        <v>193</v>
-      </c>
-      <c r="G49" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
         <v>51</v>
       </c>
+      <c r="B50" t="s">
+        <v>195</v>
+      </c>
+      <c r="C50" t="s">
+        <v>96</v>
+      </c>
+      <c r="D50" t="s">
+        <v>90</v>
+      </c>
+      <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
         <v>52</v>
       </c>
+      <c r="B51" t="s">
+        <v>196</v>
+      </c>
+      <c r="C51" t="s">
+        <v>96</v>
+      </c>
+      <c r="D51" t="s">
+        <v>90</v>
+      </c>
+      <c r="E51" t="s">
+        <v>98</v>
+      </c>
+      <c r="F51" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
         <v>53</v>
       </c>
+      <c r="B52" t="s">
+        <v>197</v>
+      </c>
+      <c r="C52" t="s">
+        <v>96</v>
+      </c>
+      <c r="D52" t="s">
+        <v>90</v>
+      </c>
+      <c r="E52" t="s">
+        <v>98</v>
+      </c>
+      <c r="F52" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
         <v>54</v>
       </c>
+      <c r="B53" t="s">
+        <v>198</v>
+      </c>
+      <c r="C53" t="s">
+        <v>96</v>
+      </c>
+      <c r="D53" t="s">
+        <v>90</v>
+      </c>
+      <c r="E53" t="s">
+        <v>98</v>
+      </c>
+      <c r="F53" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" t="s">
         <v>55</v>
       </c>
+      <c r="B54" t="s">
+        <v>200</v>
+      </c>
+      <c r="C54" t="s">
+        <v>96</v>
+      </c>
+      <c r="D54" t="s">
+        <v>90</v>
+      </c>
+      <c r="E54" t="s">
+        <v>98</v>
+      </c>
+      <c r="F54" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
         <v>56</v>
       </c>
+      <c r="B55" t="s">
+        <v>201</v>
+      </c>
+      <c r="C55" t="s">
+        <v>89</v>
+      </c>
+      <c r="D55" t="s">
+        <v>90</v>
+      </c>
+      <c r="E55" t="s">
+        <v>98</v>
+      </c>
+      <c r="G55" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
         <v>57</v>
       </c>
+      <c r="B56" t="s">
+        <v>202</v>
+      </c>
+      <c r="C56" t="s">
+        <v>96</v>
+      </c>
+      <c r="D56" t="s">
+        <v>90</v>
+      </c>
+      <c r="E56" t="s">
+        <v>98</v>
+      </c>
+      <c r="F56" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>58</v>
+        <v>203</v>
+      </c>
+      <c r="B57" t="s">
+        <v>204</v>
+      </c>
+      <c r="C57" t="s">
+        <v>89</v>
+      </c>
+      <c r="D57" t="s">
+        <v>90</v>
+      </c>
+      <c r="E57" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="B58" t="s">
+        <v>205</v>
+      </c>
+      <c r="C58" t="s">
+        <v>96</v>
+      </c>
+      <c r="D58" t="s">
+        <v>90</v>
+      </c>
+      <c r="E58" t="s">
+        <v>87</v>
+      </c>
+      <c r="F58" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" t="s">
-        <v>60</v>
+        <v>59</v>
+      </c>
+      <c r="B59" t="s">
+        <v>206</v>
+      </c>
+      <c r="C59" t="s">
+        <v>89</v>
+      </c>
+      <c r="D59" t="s">
+        <v>90</v>
+      </c>
+      <c r="E59" t="s">
+        <v>87</v>
+      </c>
+      <c r="G59" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G82" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1"/>
   <hyperlinks>
     <hyperlink ref="G18" r:id="rId1" location=":~:text=This%20style%20of%20house%20is,and%20garage%2Fstorage%20area)." xr:uid="{EDE8786A-3132-473D-ACC2-43DAAE9533EB}"/>
